--- a/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
+++ b/InputData/elec/ARpUIiRC/Ann Ret per Unit Inc in Relative Cost.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Desktop\eps-1.2.0-rc1_Poland\POLAND SOURCE DATA\eps-1.1.4\InputData\elec\ARpUIiRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\elec\ARpUIiRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21080" windowHeight="9030"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ARpUIiRC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ARpUIiRC Annual Retirement per Unit Increase in Relative Cost</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Annual Retirement per Unit Increase in Relative Cost MW/($/MWh)</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -77,6 +71,18 @@
   </si>
   <si>
     <t>no change in capacity due to changes in the relative cost.</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
   </si>
 </sst>
 </file>
@@ -433,71 +439,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -511,107 +517,123 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
